--- a/SDLT Running Code/SDLT Submission-Trigger Reminder Email/Data/Master Final.xlsx
+++ b/SDLT Running Code/SDLT Submission-Trigger Reminder Email/Data/Master Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Taylors\SDLT Submission-Trigger Reminder Email\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25D4606-7342-4999-9DDE-85829C72E784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA1E420-8446-42BA-BB8C-6F1A5747D6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
